--- a/agent/components/sample_lead.xlsx
+++ b/agent/components/sample_lead.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UrbanMoney\admin\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UrbanMoney\agent\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0ADDF8-750E-4521-A3F4-6BD5E995B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33102D4-E173-419F-B23F-91C7C0E69270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Tenure</t>
   </si>
@@ -33,9 +33,6 @@
     <t>LINK TO CUSTOMER</t>
   </si>
   <si>
-    <t>S.No</t>
-  </si>
-  <si>
     <t>Reference Number</t>
   </si>
   <si>
@@ -99,70 +96,64 @@
     <t>HIT API</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>45re54</t>
-  </si>
-  <si>
-    <t>fghjklk</t>
-  </si>
-  <si>
-    <t>jgfgfg</t>
-  </si>
-  <si>
-    <t>hjhgfgd</t>
-  </si>
-  <si>
-    <t>r567677</t>
-  </si>
-  <si>
-    <t>mnbffgh</t>
-  </si>
-  <si>
-    <t>ddf</t>
-  </si>
-  <si>
-    <t>hjhj</t>
-  </si>
-  <si>
-    <t>ghh</t>
-  </si>
-  <si>
-    <t>jgj</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>fty</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ddddw</t>
-  </si>
-  <si>
-    <t>dfefwe</t>
-  </si>
-  <si>
-    <t>efwfwe</t>
-  </si>
-  <si>
-    <t>efefw</t>
-  </si>
-  <si>
-    <t>ewfwe</t>
-  </si>
-  <si>
-    <t>fefe</t>
-  </si>
-  <si>
-    <t>ewew</t>
-  </si>
-  <si>
-    <t>ewef</t>
+    <t>J&amp;K</t>
+  </si>
+  <si>
+    <t>Srinagar</t>
+  </si>
+  <si>
+    <t>mansha@um.com</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>AAP2356</t>
+  </si>
+  <si>
+    <t>2year</t>
+  </si>
+  <si>
+    <t>no comments</t>
+  </si>
+  <si>
+    <t>Bajaj</t>
+  </si>
+  <si>
+    <t>sumaiya</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>sir</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>sir@123</t>
+  </si>
+  <si>
+    <t>10L</t>
+  </si>
+  <si>
+    <t>ZXR123</t>
+  </si>
+  <si>
+    <t>5y</t>
+  </si>
+  <si>
+    <t>TAT-UM-7</t>
+  </si>
+  <si>
+    <t>TAT-UM-9</t>
   </si>
 </sst>
 </file>
@@ -243,14 +234,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -567,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,159 +572,225 @@
     <col min="9" max="9" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>190003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>178966</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>12000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>500</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="4">
-        <v>45253</v>
-      </c>
-      <c r="C2">
-        <v>2313</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>21190</v>
+      </c>
+      <c r="G3">
+        <v>12564</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>23445678</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>23445</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <v>500</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E5DA19C0-8F33-4892-BA01-F92F6ACA1CA8}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{46649474-D68B-42F3-8CEA-D8C8DFC2634D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>